--- a/FileShare/results/InprecisionTracing.KK.Acer.nonEclipse.Sun1.6.-server.-Xint.xlsx
+++ b/FileShare/results/InprecisionTracing.KK.Acer.nonEclipse.Sun1.6.-server.-Xint.xlsx
@@ -510,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -595,6 +595,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -891,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -909,10 +912,13 @@
     <col min="9" max="9" width="19.28515625" style="13" customWidth="1"/>
     <col min="10" max="10" width="17.140625" style="20" customWidth="1"/>
     <col min="11" max="12" width="0" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="7"/>
+    <col min="13" max="13" width="9.140625" style="7"/>
+    <col min="14" max="14" width="21" style="7" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="165">
+    <row r="1" spans="1:15" ht="165">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -950,7 +956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="17" customFormat="1">
+    <row r="2" spans="1:15" s="17" customFormat="1">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -992,8 +998,16 @@
         <f>#REF!/D2</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="N2" s="23">
+        <f>G2/1.8182</f>
+        <v>748974623.25376749</v>
+      </c>
+      <c r="O2" s="34">
+        <f>N2/F2</f>
+        <v>1.0054945645508953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -1035,8 +1049,16 @@
         <f>#REF!/D3</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="N3" s="23">
+        <f>G3/1.746</f>
+        <v>832396923.8258878</v>
+      </c>
+      <c r="O3" s="34">
+        <f t="shared" ref="O3:O11" si="4">N3/F3</f>
+        <v>1.0049384296322394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
@@ -1078,8 +1100,16 @@
         <f>#REF!/D4</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="N4" s="23">
+        <f>G4/1.3945</f>
+        <v>1251078629.6163499</v>
+      </c>
+      <c r="O4" s="34">
+        <f t="shared" si="4"/>
+        <v>1.0077911372058774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
@@ -1121,8 +1151,16 @@
         <f>#REF!/D5</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="N5" s="23">
+        <f>G5/1.8088</f>
+        <v>883448347.52321982</v>
+      </c>
+      <c r="O5" s="34">
+        <f t="shared" si="4"/>
+        <v>1.0148543916351063</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
@@ -1164,8 +1202,16 @@
         <f>#REF!/D6</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="N6" s="23">
+        <f>G6/1.7908</f>
+        <v>1020297859.6158142</v>
+      </c>
+      <c r="O6" s="34">
+        <f t="shared" si="4"/>
+        <v>1.0147415852403021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="18" t="s">
         <v>6</v>
       </c>
@@ -1207,8 +1253,16 @@
         <f>#REF!/D7</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="N7" s="23">
+        <f>G7/1.7788</f>
+        <v>1168113162.8063865</v>
+      </c>
+      <c r="O7" s="34">
+        <f t="shared" si="4"/>
+        <v>1.0164732729404238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="18" t="s">
         <v>7</v>
       </c>
@@ -1250,8 +1304,16 @@
         <f>#REF!/D8</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="N8" s="23">
+        <f>G8/1.752</f>
+        <v>1179243949.2009132</v>
+      </c>
+      <c r="O8" s="34">
+        <f t="shared" si="4"/>
+        <v>1.0137846004833964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="18" t="s">
         <v>8</v>
       </c>
@@ -1293,8 +1355,16 @@
         <f>#REF!/D9</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="N9" s="23">
+        <f>G9/1.6349</f>
+        <v>1041493441.1890635</v>
+      </c>
+      <c r="O9" s="34">
+        <f t="shared" si="4"/>
+        <v>1.0397425013002215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
@@ -1336,8 +1406,16 @@
         <f>#REF!/D10</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="N10" s="23">
+        <f>G10/1.683</f>
+        <v>1257277340.4634581</v>
+      </c>
+      <c r="O10" s="34">
+        <f t="shared" si="4"/>
+        <v>1.0164449590025695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="18" t="s">
         <v>10</v>
       </c>
@@ -1379,14 +1457,22 @@
         <f>#REF!/D11</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="N11" s="23">
+        <f>G11/1.6644</f>
+        <v>1324931671.4732034</v>
+      </c>
+      <c r="O11" s="34">
+        <f t="shared" si="4"/>
+        <v>1.027088167967374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="H13" s="19">
         <f>AVERAGE(H2:H11)</f>
         <v>1.7345336016771129</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:15">
       <c r="F14" s="7" t="s">
         <v>27</v>
       </c>
@@ -1394,12 +1480,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:15">
       <c r="H15" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:15">
       <c r="H16" s="22" t="s">
         <v>14</v>
       </c>

--- a/FileShare/results/InprecisionTracing.KK.Acer.nonEclipse.Sun1.6.-server.-Xint.xlsx
+++ b/FileShare/results/InprecisionTracing.KK.Acer.nonEclipse.Sun1.6.-server.-Xint.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="17040" windowHeight="12345"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="12285" windowHeight="12750"/>
   </bookViews>
   <sheets>
     <sheet name="Lenovo" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Lenovo!$A$1:$J$18</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1:O18"/>
 </workbook>
 </file>
 
@@ -896,7 +897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:O11"/>
     </sheetView>
   </sheetViews>
